--- a/CaseAndFatalityDemographicsData/2021-11-12.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-11-12.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\11.04.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\11.11.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E92332-4C08-4067-8BA4-3B093C630310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477B7D9C-F7CC-4E93-B2F1-BF55C53E0F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="806" firstSheet="1" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="806" firstSheet="1" activeTab="4" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
     <sheet name="Cases by Gender" sheetId="4" r:id="rId2"/>
     <sheet name="Cases by RaceEthnicity" sheetId="5" r:id="rId3"/>
-    <sheet name="Fatalities by Gender" sheetId="7" r:id="rId4"/>
-    <sheet name="Fatalities by Age Group" sheetId="6" r:id="rId5"/>
+    <sheet name="Fatalities by Age Group" sheetId="6" r:id="rId4"/>
+    <sheet name="Fatalities by Gender" sheetId="7" r:id="rId5"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -134,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,6 +166,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -235,9 +242,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -305,8 +313,9 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6D7634B4-A725-4C7B-9D85-FF55881C6CDB}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1137,80 +1146,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92BAF56-3443-4211-AC39-FD818DE6BEEB}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6">
-        <v>29517</v>
-      </c>
-      <c r="C2" s="9">
-        <f>B2/$B$5</f>
-        <v>0.41824777181074918</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6">
-        <v>41055</v>
-      </c>
-      <c r="C3" s="9">
-        <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58173805846428517</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <f t="shared" si="0"/>
-        <v>1.4169724965638417E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1">
-        <v>70573</v>
-      </c>
-      <c r="C5" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F742947-EAB5-4DCC-A1CA-1F4AA7362BD3}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1243,7 +1178,7 @@
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>1.9837614951893784E-4</v>
+        <v>1.9608941677404896E-4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1251,11 +1186,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.8339449931276834E-4</v>
+        <v>2.9413412516107344E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1267,7 +1202,7 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.0768990973885196E-3</v>
+        <v>1.0644854053448373E-3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1275,11 +1210,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>8.7427203037989034E-3</v>
+        <v>8.8380301417446353E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1287,11 +1222,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>2002</v>
+        <v>2051</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>2.8367789381208111E-2</v>
+        <v>2.8727099557398175E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -1299,11 +1234,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>4927</v>
+        <v>5016</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>6.9814234905700476E-2</v>
+        <v>7.0256036752759252E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1311,11 +1246,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>9379</v>
+        <v>9550</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.1328978504527227</v>
+        <v>0.13376099501372626</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -1323,11 +1258,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>7151</v>
+        <v>7265</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>0.10132770322928032</v>
+        <v>0.10175640091881898</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1335,11 +1270,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>8485</v>
+        <v>8586</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0.12023011633344197</v>
+        <v>0.12025883803014174</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -1347,11 +1282,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>9041</v>
+        <v>9131</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0.12810848341433692</v>
+        <v>0.12789231889741723</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1359,11 +1294,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>8570</v>
+        <v>8649</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0.12143454295552124</v>
+        <v>0.12114124040562496</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1371,11 +1306,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>20291</v>
+        <v>20406</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>0.28751788927776911</v>
+        <v>0.28581433133508882</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -1395,9 +1330,83 @@
         <v>24</v>
       </c>
       <c r="B15" s="7">
-        <v>70573</v>
+        <v>71396</v>
       </c>
       <c r="C15" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92BAF56-3443-4211-AC39-FD818DE6BEEB}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6">
+        <v>29859</v>
+      </c>
+      <c r="C2" s="9">
+        <f>B2/$B$5</f>
+        <v>0.41821670681830914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6">
+        <v>41536</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
+        <v>0.58176928679477846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4006386912432068E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>71396</v>
+      </c>
+      <c r="C5" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1411,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030A505-56A3-4E91-AD33-A7ADAD482E9C}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1436,11 +1445,11 @@
         <v>23</v>
       </c>
       <c r="B2" s="6">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="C2" s="9">
         <f t="shared" ref="C2" si="0">B2/$B$8</f>
-        <v>1.8519830530089411E-2</v>
+        <v>1.8474424337497897E-2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -1448,11 +1457,11 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>7423</v>
+        <v>7534</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="1">B3/$B$8</f>
-        <v>0.10518186841993397</v>
+        <v>0.10552411899826321</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -1460,11 +1469,11 @@
         <v>22</v>
       </c>
       <c r="B4" s="6">
-        <v>30863</v>
+        <v>31202</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="1"/>
-        <v>0.43732022161449846</v>
+        <v>0.43702728444170541</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -1472,11 +1481,11 @@
         <v>25</v>
       </c>
       <c r="B5" s="6">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>5.9371147606024971E-3</v>
+        <v>5.938708050871197E-3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
@@ -1484,11 +1493,11 @@
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>30517</v>
+        <v>30872</v>
       </c>
       <c r="C6" s="9">
         <f>B6/$B$8</f>
-        <v>0.43241749677638758</v>
+        <v>0.43240517676060286</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -1505,11 +1514,11 @@
         <v>18</v>
       </c>
       <c r="B7" s="6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>6.234678984880903E-4</v>
+        <v>6.3028741105944309E-4</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="24"/>
@@ -1527,7 +1536,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>70573</v>
+        <v>71396</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="1"/>
